--- a/R/advice/advice_basis_fishing.xlsx
+++ b/R/advice/advice_basis_fishing.xlsx
@@ -31,9 +31,9 @@
     <t xml:space="preserve">Management plan</t>
   </si>
   <si>
-    <t xml:space="preserve">A management framework for eel within the EU was established in 2007 by Council Regulation (EC) No. 1100/2007 [@eucouncil2007] with the objective of achieving at least 40% of pristine silver eel escapement biomass. The General Fisheries Commission for the Mediterranean (GFCM) adopted Recommendation GFCM/42/2018/1 [@gfcm2018], establishing management measures for European eel (*Anguilla anguilla*) in the Mediterranean Sea, which was amended most recently in GFCM/46/2023/16 [@gfcm2023].
+    <t xml:space="preserve">A management framework for eel within the EU was established in 2007 by Council Regulation (EC) No. 1100/2007 [@eucouncil2007], requiring Member States to implement Eel Management Plans with the objective “to reduce anthropogenic mortalities so as to permit with high probability the escapement to the sea of at least 40 % of the silver eel biomass relative to the best estimate of escapement that would have existed if no anthropogenic influences had impacted the stock". The General Fisheries Commission for the Mediterranean (GFCM) adopted Recommendation GFCM/42/2018/1 [@gfcm2018], establishing management measures for European eel (*Anguilla anguilla*) in the Mediterranean Sea, which was amended most recently in GFCM/47/2024/1 [@gfcm2025].
 These management plans have not been evaluated by ICES for their conformity with the precautionary approach and, for this reason, have not been used as the basis for the advice. 
-Eel fisheries in EU waters are further regulated in Council Regulation (EU) 2024/257 and Council Regulation (EU) 2024/259, fixing ‘Fishing Opportunities’ [@eucouncil2024; @eucouncil2024a] Regulation (EU) 2023/2124 on “certain provisions for fishing” [@eu2023] and in Commission Implementing Decision [EU) No 2018/1986 “Specific Control and Inspection Programme” ([@ec2018]; amended by Commission Implementing Decision [EU] 2020/1320 [@ec2020] and Commission Implementing Decision [EU] 2023/2376 [@ec2023a]).</t>
+Eel fisheries in EU waters are further regulated in Council Regulation (EU) 2024/257 and Council Regulation (EU) 2024/259, fixing ‘Fishing Opportunities’ [@eucouncil2025a; @eucouncil2025] Regulation (EU) 2023/2124 on “certain provisions for fishing” [@eu2023] and in Commission Implementing Decision [EU) No 2018/1986 “Specific Control and Inspection Programme” ([@ec2018]; amended by Commission Implementing Decision [EU] 2020/1320 [@ec2020] and Commission Implementing Decision [EU] 2023/2376 [@ec2023a]).</t>
   </si>
 </sst>
 </file>
@@ -141,10 +141,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.03"/>
